--- a/Final report/Testing Spreadsheet v.1.0 HomePage.xlsx
+++ b/Final report/Testing Spreadsheet v.1.0 HomePage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
@@ -1654,11 +1654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-429865712"/>
-        <c:axId val="-429874416"/>
+        <c:axId val="-622145712"/>
+        <c:axId val="-622141904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-429865712"/>
+        <c:axId val="-622145712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-429874416"/>
+        <c:crossAx val="-622141904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-429874416"/>
+        <c:axId val="-622141904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-429865712"/>
+        <c:crossAx val="-622145712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,8 +2483,8 @@
   </sheetPr>
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,7 +3043,7 @@
         <v>112</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>34</v>
@@ -3051,9 +3051,7 @@
       <c r="M14" s="31">
         <v>42082</v>
       </c>
-      <c r="N14" s="31">
-        <v>42082</v>
-      </c>
+      <c r="N14" s="31"/>
       <c r="O14" s="1" t="s">
         <v>113</v>
       </c>
@@ -3091,7 +3089,7 @@
         <v>110</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>38</v>
@@ -3099,9 +3097,7 @@
       <c r="M15" s="36">
         <v>42082</v>
       </c>
-      <c r="N15" s="36">
-        <v>42082</v>
-      </c>
+      <c r="N15" s="36"/>
       <c r="O15" s="3" t="s">
         <v>111</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>193</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>34</v>
@@ -3291,9 +3287,7 @@
       <c r="M20" s="39">
         <v>42104</v>
       </c>
-      <c r="N20" s="31">
-        <v>42104</v>
-      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="38" t="s">
         <v>197</v>
       </c>
@@ -3521,7 +3515,7 @@
         <v>226</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>38</v>
@@ -3529,9 +3523,7 @@
       <c r="M26" s="32">
         <v>42109</v>
       </c>
-      <c r="N26" s="31">
-        <v>42109</v>
-      </c>
+      <c r="N26" s="31"/>
       <c r="O26" s="38" t="s">
         <v>227</v>
       </c>
@@ -6350,6 +6342,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6463,12 +6461,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
@@ -6478,6 +6470,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6491,19 +6498,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>